--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_25_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159059.538328636</v>
+        <v>1161360.746551973</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8324528.688650197</v>
+        <v>9654200.856693137</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11247133.17035143</v>
+        <v>17785260.94054101</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6360605.697296428</v>
+        <v>4495890.803380534</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K11" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L11" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M11" t="n">
-        <v>229.0255329194018</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N11" t="n">
-        <v>216.760077047904</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O11" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P11" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>116.1583472462178</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K12" t="n">
-        <v>125.8806821624197</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L12" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M12" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N12" t="n">
-        <v>118.9841352499819</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O12" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P12" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L13" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M13" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N13" t="n">
-        <v>127.1692515251867</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O13" t="n">
-        <v>126.6687424281911</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P13" t="n">
-        <v>126.0090348155787</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>193.4482857900807</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>138.8129170674867</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>37.19933991821606</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K15" t="n">
-        <v>137.1915980915047</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L15" t="n">
-        <v>48.42251260802845</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M15" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N15" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O15" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P15" t="n">
-        <v>43.94786116890414</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.20999610805661</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,25 +9087,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>39.36320080949192</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L16" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M16" t="n">
-        <v>49.13883979327297</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N16" t="n">
-        <v>37.91117561568451</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O16" t="n">
-        <v>48.72158244777381</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P16" t="n">
-        <v>48.06187483516146</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.96441076296816</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>91.14945519165653</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K17" t="n">
-        <v>129.8750188518518</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L17" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M17" t="n">
-        <v>197.1341177839521</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N17" t="n">
-        <v>228.0709929769889</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O17" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P17" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K18" t="n">
-        <v>47.9335221820025</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>48.42251260802845</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O18" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>43.94786116890414</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,25 +9324,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>39.36320080949192</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
-        <v>37.91117561568451</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>48.72158244777381</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
-        <v>48.06187483516146</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.96441076296816</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.14945519165653</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K20" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L20" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>229.0255329194018</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>228.0709929769889</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>132.2353822884167</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>37.19933991821606</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
-        <v>110.245763854675</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L21" t="n">
-        <v>48.42251260802845</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M21" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>43.94786116890414</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>39.36320080949192</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
-        <v>49.13883979327297</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>37.91117561568451</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
-        <v>48.72158244777381</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P22" t="n">
-        <v>48.06187483516146</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.96441076296816</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.14945519165653</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>145.1251423740787</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>229.0255329194018</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>228.0709929769889</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>139.5728562827366</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>132.2353822884167</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9711,31 +9713,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858492</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>37.19933991821606</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>137.1915980915047</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,25 +9798,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>39.36320080949192</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>49.13883979327297</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>127.1692515251867</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>137.979658357276</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>48.06187483516146</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.96441076296816</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>229.0255329194018</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>142.3941134373849</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q26" t="n">
-        <v>135.8165786583149</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>40.78053628811426</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>137.1915980915047</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>55.96187465924201</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>47.52905753880233</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>42.94439717939012</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
-        <v>48.70619543815183</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M28" t="n">
-        <v>52.72003616317117</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N28" t="n">
-        <v>118.9894536021936</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O28" t="n">
-        <v>52.302778817672</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>51.64307120505966</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>35.33831870777487</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K29" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L29" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>83.95632052601789</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>228.0709929769889</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
-        <v>76.49377871425679</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K30" t="n">
-        <v>137.1915980915047</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L30" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P30" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R30" t="n">
-        <v>0.3604301604248394</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10267,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L31" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N31" t="n">
-        <v>127.1692515251867</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.153274279086499</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>83.95632052601789</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>193.4259448792897</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>76.42424580453502</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0.3604301604248394</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,28 +10506,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>137.979658357276</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.153274279086499</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>35.33831870777487</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>74.06388236797012</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>141.3786886991137</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>83.00178058360507</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>76.42424580453502</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K36" t="n">
-        <v>137.1915980915047</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R36" t="n">
-        <v>0.3604301604248394</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10741,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L37" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M37" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N37" t="n">
-        <v>127.1692515251867</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O37" t="n">
-        <v>137.979658357276</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.153274279086499</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>35.33831870777487</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>229.0255329194018</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>83.00178058360507</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>83.76171979885495</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>76.42424580453502</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>44.62964612616398</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R39" t="n">
-        <v>0.3604301604248394</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>137.979658357276</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.153274279086499</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.06803826696164</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>91.68604008520467</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>228.0709929769889</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>84.1539653637218</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>4.299261364648931</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.128579183361717</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,25 +11220,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L43" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M43" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N43" t="n">
-        <v>89.99939349033934</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>137.979658357276</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.88299383827328</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>219.133094761354</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>234.5794741979707</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>229.0255329194018</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>228.0709929769889</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>228.8309321922388</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>230.1514022524769</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>137.1915980915047</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>137.6805885175307</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>141.1143607329347</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>130.2950511790669</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>141.638754198846</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>133.2059370784064</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.4680720175588</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>134.3830749777559</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>138.3969157027752</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>127.1692515251867</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>137.979658357276</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>371.4229257343956</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>353.9619758419226</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>343.372125691598</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>370.6194541431768</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>395.5651298126265</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>403.9843001388944</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H11" t="n">
-        <v>328.0868571659993</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I11" t="n">
-        <v>198.8750030498524</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>138.0857329071731</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S11" t="n">
-        <v>197.5377586801008</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T11" t="n">
-        <v>211.7520085001225</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U11" t="n">
-        <v>240.034135262979</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V11" t="n">
-        <v>316.4413425410499</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>337.9300527883281</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>358.4201847493841</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.9270227269686</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155.2222677207824</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>161.3975830592308</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>136.1341496355538</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>146.334164526316</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>133.7582964642989</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>126.0285769051121</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8856617614125</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I12" t="n">
-        <v>77.94715998041724</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>88.59705681340293</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S12" t="n">
-        <v>160.2975050283833</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T12" t="n">
-        <v>188.8375918957216</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U12" t="n">
-        <v>214.6302013934021</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V12" t="n">
-        <v>221.4896712203403</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>240.3840672318346</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>194.4620692743925</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>194.3717798482194</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23413,34 +23415,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.5210642528523</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>155.9359051695428</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>137.3045570891274</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>135.1230467174842</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>134.1101320938463</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>156.6766895671148</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H13" t="n">
-        <v>150.8862598757249</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I13" t="n">
-        <v>144.0380977586038</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J13" t="n">
-        <v>81.80973212587918</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K13" t="n">
-        <v>10.56659444525663</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.56861236563395</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R13" t="n">
-        <v>165.8307743323315</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6468848901561</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T13" t="n">
-        <v>216.6202579059082</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U13" t="n">
-        <v>275.0079293985555</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V13" t="n">
-        <v>240.826727394743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>275.212082407506</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>214.3987394599522</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.2737374230098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.4757657539784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>276.0148158615053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>265.4249657111807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>292.6722941627596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>317.6179698322092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>326.0371401584771</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H14" t="n">
-        <v>250.1396971855821</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I14" t="n">
-        <v>120.9278430694352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.13857292675586</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
-        <v>119.5905986996836</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T14" t="n">
-        <v>133.8048485197053</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U14" t="n">
-        <v>162.0869752825618</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V14" t="n">
-        <v>238.4941825606327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>259.9828928079108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>280.4730247689668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>296.9798627465514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.27510774036513</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>83.45042307881353</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>58.18698965513654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>68.38700454589873</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>55.81113648388167</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>48.08141692469489</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H15" t="n">
-        <v>22.93850178099525</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.64989683298569</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S15" t="n">
-        <v>82.35034504796606</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T15" t="n">
-        <v>110.8904319153044</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U15" t="n">
-        <v>136.6830414129849</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V15" t="n">
-        <v>143.542511239923</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>162.4369072514174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>116.5149092939753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>116.4246198678021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.57390427243509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>77.98874518912562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>59.35739710871015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>57.17588673706696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>56.16297211342903</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>78.72952958669758</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H16" t="n">
-        <v>72.93909989530768</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I16" t="n">
-        <v>66.09093777818656</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J16" t="n">
-        <v>3.862572145461939</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R16" t="n">
-        <v>87.88361435191429</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S16" t="n">
-        <v>134.6997249097388</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T16" t="n">
-        <v>138.673097925491</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U16" t="n">
-        <v>197.0607694181382</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V16" t="n">
-        <v>162.8795674143258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>197.2649224270888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>136.4515794795349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.3265774425926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>293.4757657539784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>276.0148158615053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>265.4249657111807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>292.6722941627596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>317.6179698322092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>326.0371401584771</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H17" t="n">
-        <v>250.1396971855821</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I17" t="n">
-        <v>120.9278430694352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.13857292675586</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S17" t="n">
-        <v>119.5905986996836</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T17" t="n">
-        <v>133.8048485197053</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U17" t="n">
-        <v>162.0869752825618</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V17" t="n">
-        <v>238.4941825606327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>259.9828928079108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>280.4730247689668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>296.9798627465514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>77.27510774036513</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>83.45042307881353</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>58.18698965513654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>68.38700454589873</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>55.81113648388167</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>48.08141692469489</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H18" t="n">
-        <v>22.93850178099525</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.64989683298569</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S18" t="n">
-        <v>82.35034504796606</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T18" t="n">
-        <v>110.8904319153044</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U18" t="n">
-        <v>136.6830414129849</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V18" t="n">
-        <v>143.542511239923</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>162.4369072514174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>116.5149092939753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>116.4246198678021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23887,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>90.57390427243509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>77.98874518912562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>59.35739710871015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>57.17588673706696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>56.16297211342903</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>78.72952958669758</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H19" t="n">
-        <v>72.93909989530768</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I19" t="n">
-        <v>66.09093777818656</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J19" t="n">
-        <v>3.862572145461939</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R19" t="n">
-        <v>87.88361435191429</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S19" t="n">
-        <v>134.6997249097388</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T19" t="n">
-        <v>138.673097925491</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U19" t="n">
-        <v>197.0607694181382</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V19" t="n">
-        <v>162.8795674143258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>197.2649224270888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>136.4515794795349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>129.3265774425926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>293.4757657539784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>276.0148158615053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>265.4249657111807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>292.6722941627596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>317.6179698322092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>326.0371401584771</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H20" t="n">
-        <v>250.1396971855821</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I20" t="n">
-        <v>120.9278430694352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>60.13857292675586</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
-        <v>119.5905986996836</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T20" t="n">
-        <v>133.8048485197053</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U20" t="n">
-        <v>162.0869752825618</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V20" t="n">
-        <v>238.4941825606327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>259.9828928079108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>280.4730247689668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>296.9798627465514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.27510774036513</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>83.45042307881353</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>58.18698965513654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>68.38700454589873</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>55.81113648388167</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>48.08141692469489</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H21" t="n">
-        <v>22.93850178099525</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.64989683298569</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S21" t="n">
-        <v>82.35034504796606</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T21" t="n">
-        <v>110.8904319153044</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U21" t="n">
-        <v>136.6830414129849</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V21" t="n">
-        <v>143.542511239923</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>162.4369072514174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>116.5149092939753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>116.4246198678021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24124,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.57390427243509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>77.98874518912562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>59.35739710871015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>57.17588673706696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>56.16297211342903</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>78.72952958669758</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H22" t="n">
-        <v>72.93909989530768</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I22" t="n">
-        <v>66.09093777818656</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J22" t="n">
-        <v>3.862572145461939</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R22" t="n">
-        <v>87.88361435191429</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S22" t="n">
-        <v>134.6997249097388</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T22" t="n">
-        <v>138.673097925491</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U22" t="n">
-        <v>197.0607694181382</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V22" t="n">
-        <v>162.8795674143258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>197.2649224270888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>136.4515794795349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>129.3265774425926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>293.4757657539784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>276.0148158615053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>265.4249657111807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>292.6722941627596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>317.6179698322092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>326.0371401584771</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H23" t="n">
-        <v>250.1396971855821</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I23" t="n">
-        <v>120.9278430694352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.13857292675586</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
-        <v>119.5905986996836</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T23" t="n">
-        <v>133.8048485197053</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U23" t="n">
-        <v>162.0869752825618</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V23" t="n">
-        <v>238.4941825606327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>259.9828928079108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>280.4730247689668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.9798627465514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.27510774036513</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>83.45042307881353</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>58.18698965513654</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>68.38700454589873</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>55.81113648388167</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>48.08141692469489</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H24" t="n">
-        <v>22.93850178099525</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.64989683298569</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S24" t="n">
-        <v>82.35034504796606</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T24" t="n">
-        <v>110.8904319153044</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U24" t="n">
-        <v>136.6830414129849</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V24" t="n">
-        <v>143.542511239923</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>162.4369072514174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>116.5149092939753</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.4246198678021</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.57390427243509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>77.98874518912562</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>59.35739710871015</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>57.17588673706696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>56.16297211342903</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>78.72952958669758</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H25" t="n">
-        <v>72.93909989530768</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I25" t="n">
-        <v>66.09093777818656</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>3.862572145461939</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
-        <v>87.88361435191429</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6997249097388</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T25" t="n">
-        <v>138.673097925491</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U25" t="n">
-        <v>197.0607694181382</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V25" t="n">
-        <v>162.8795674143258</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>197.2649224270888</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>136.4515794795349</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.3265774425926</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>297.0569621238766</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>279.5960122314035</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>269.006162081079</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>296.2534905326578</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>321.1991662021074</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>329.6183365283754</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H26" t="n">
-        <v>253.7208935554803</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I26" t="n">
-        <v>124.5090394393334</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>63.71976929665405</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S26" t="n">
-        <v>123.1717950695818</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T26" t="n">
-        <v>137.3860448896035</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U26" t="n">
-        <v>165.66817165246</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V26" t="n">
-        <v>242.0753789305309</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>263.564089177809</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>284.054221138865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.5610591164495</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>80.85630411026332</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>87.03161944871172</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>61.76818602503474</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>71.96820091579693</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>59.39233285377986</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>51.66261329459309</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H27" t="n">
-        <v>26.51969815089345</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>3.581196369898194</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>14.23109320288388</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S27" t="n">
-        <v>85.93154141786425</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T27" t="n">
-        <v>114.4716282852026</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U27" t="n">
-        <v>140.2642377828831</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V27" t="n">
-        <v>147.1237076098213</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>166.0181036213156</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>120.0961056638735</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>120.0058162377003</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.15510064233328</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.56994155902382</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>62.93859347860834</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>60.75708310696515</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>59.74416848332723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>82.31072595659577</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H28" t="n">
-        <v>76.52029626520587</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I28" t="n">
-        <v>69.67213414808475</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J28" t="n">
-        <v>7.443768515360134</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,31 +24645,31 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2026487551149074</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R28" t="n">
-        <v>91.46481072181248</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S28" t="n">
-        <v>138.2809212796371</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T28" t="n">
-        <v>142.2542942953892</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U28" t="n">
-        <v>200.6419657880364</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V28" t="n">
-        <v>166.460763784224</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>200.846118796987</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>140.0327758494331</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.9077738124908</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>270.2260036745955</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H29" t="n">
-        <v>194.3285607017004</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I29" t="n">
-        <v>65.11670658555352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.327436442874188</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S29" t="n">
-        <v>63.77946221580191</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T29" t="n">
-        <v>77.99371203582359</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U29" t="n">
-        <v>106.2758387986802</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V29" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S30" t="n">
-        <v>26.53920856408439</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T30" t="n">
-        <v>55.07929543142271</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U30" t="n">
-        <v>80.87190492910321</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V30" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>22.91839310281591</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H31" t="n">
-        <v>17.12796341142601</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I31" t="n">
-        <v>10.27980129430489</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R31" t="n">
-        <v>32.07247786803262</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S31" t="n">
-        <v>78.88858842585719</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T31" t="n">
-        <v>82.86196144160931</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U31" t="n">
-        <v>141.2496329342565</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V31" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>270.2260036745955</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H32" t="n">
-        <v>194.3285607017004</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I32" t="n">
-        <v>65.11670658555352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.327436442874188</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S32" t="n">
-        <v>63.77946221580191</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T32" t="n">
-        <v>77.99371203582359</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U32" t="n">
-        <v>106.2758387986802</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V32" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24995,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
-        <v>26.53920856408439</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T33" t="n">
-        <v>55.07929543142271</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U33" t="n">
-        <v>80.87190492910321</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V33" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25072,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>22.91839310281591</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H34" t="n">
-        <v>17.12796341142601</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I34" t="n">
-        <v>10.27980129430489</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07247786803262</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S34" t="n">
-        <v>78.88858842585719</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T34" t="n">
-        <v>82.86196144160931</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U34" t="n">
-        <v>141.2496329342565</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V34" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>270.2260036745955</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H35" t="n">
-        <v>194.3285607017004</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I35" t="n">
-        <v>65.11670658555352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.327436442874188</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S35" t="n">
-        <v>63.77946221580191</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T35" t="n">
-        <v>77.99371203582359</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U35" t="n">
-        <v>106.2758387986802</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V35" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S36" t="n">
-        <v>26.53920856408439</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T36" t="n">
-        <v>55.07929543142271</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U36" t="n">
-        <v>80.87190492910321</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V36" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25309,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>22.91839310281591</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H37" t="n">
-        <v>17.12796341142601</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I37" t="n">
-        <v>10.27980129430489</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R37" t="n">
-        <v>32.07247786803262</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S37" t="n">
-        <v>78.88858842585719</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T37" t="n">
-        <v>82.86196144160931</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U37" t="n">
-        <v>141.2496329342565</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V37" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>237.6646292700967</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>220.2036793776237</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>209.6138292272991</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>236.8611576788779</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8068333483276</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>270.2260036745955</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H38" t="n">
-        <v>194.3285607017004</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I38" t="n">
-        <v>65.11670658555352</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.327436442874188</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
-        <v>63.77946221580191</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T38" t="n">
-        <v>77.99371203582359</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U38" t="n">
-        <v>106.2758387986802</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V38" t="n">
-        <v>182.683046076751</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>204.1717563240291</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>224.6618882850852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.1687262626697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.46397125648346</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>27.63928659493186</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>2.375853171254874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>12.57586806201707</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S39" t="n">
-        <v>26.53920856408439</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T39" t="n">
-        <v>55.07929543142271</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U39" t="n">
-        <v>80.87190492910321</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V39" t="n">
-        <v>87.73137475604139</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>106.6257707675357</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>60.7037728100936</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>60.61348338392048</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.76276778855342</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>22.17760870524396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>3.546260624828477</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>1.364750253185292</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3518356295473666</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>22.91839310281591</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H40" t="n">
-        <v>17.12796341142601</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I40" t="n">
-        <v>10.27980129430489</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
-        <v>32.07247786803262</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S40" t="n">
-        <v>78.88858842585719</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T40" t="n">
-        <v>82.86196144160931</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U40" t="n">
-        <v>141.2496329342565</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V40" t="n">
-        <v>107.0684309304441</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>141.4537859432071</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>80.64044299565327</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>73.51544095871091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>245.3943488292835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>227.9333989368104</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>217.3435487864859</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>244.5908772380647</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>269.5365529075143</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>277.9557232337822</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H41" t="n">
-        <v>202.0582802608872</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I41" t="n">
-        <v>72.84642614474029</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>12.05715600206096</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S41" t="n">
-        <v>71.50918177498869</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T41" t="n">
-        <v>85.72343159501037</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U41" t="n">
-        <v>114.0055583578669</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V41" t="n">
-        <v>190.4127656359378</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>211.9014758832159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>232.3916078442719</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.8984458218565</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.19369081567024</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>35.36900615411864</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>10.10557273044165</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>20.30558762120384</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>7.729719559186776</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S42" t="n">
-        <v>34.26892812327117</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T42" t="n">
-        <v>62.80901499060948</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U42" t="n">
-        <v>88.60162448828999</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V42" t="n">
-        <v>95.46109431522817</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>114.3554903267225</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>68.43349236928037</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>68.34320294310726</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25783,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42.49248734774019</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>29.90732826443073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>11.27598018401525</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>9.094469812372068</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>8.081555188734143</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>30.64811266200269</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H43" t="n">
-        <v>24.85768297061279</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I43" t="n">
-        <v>18.00952085349167</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R43" t="n">
-        <v>39.8021974272194</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S43" t="n">
-        <v>86.61830798504397</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T43" t="n">
-        <v>90.59168100079609</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U43" t="n">
-        <v>148.9793524934433</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V43" t="n">
-        <v>114.7981504896309</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>149.1835055023939</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>88.37016255484005</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.24516051789769</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.2952160679794</v>
+        <v>414.6367263390697</v>
       </c>
       <c r="H44" t="n">
-        <v>339.3977730950843</v>
+        <v>332.654015158888</v>
       </c>
       <c r="I44" t="n">
-        <v>210.1859189789374</v>
+        <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.178467538014225</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.3966488362581</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
-        <v>208.8486746091858</v>
+        <v>193.8433399116564</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0629244292075</v>
+        <v>220.1803856409053</v>
       </c>
       <c r="U44" t="n">
-        <v>251.345051192064</v>
+        <v>251.2923720137513</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3394928341971</v>
+        <v>136.9871697683942</v>
       </c>
       <c r="H45" t="n">
-        <v>112.1965776904975</v>
+        <v>108.7938786076111</v>
       </c>
       <c r="I45" t="n">
-        <v>89.25807590950221</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3663804873094315</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>99.9079727424879</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6084209574683</v>
+        <v>165.0641745378389</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1485078248066</v>
+        <v>198.728398625364</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9411173224871</v>
+        <v>225.9179381734211</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,19 +26037,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9876054961998</v>
+        <v>167.6922296731294</v>
       </c>
       <c r="H46" t="n">
-        <v>162.1971758048099</v>
+        <v>159.571016214239</v>
       </c>
       <c r="I46" t="n">
-        <v>155.3490136876888</v>
+        <v>146.4662571175369</v>
       </c>
       <c r="J46" t="n">
-        <v>93.12064805496415</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>21.8775103743416</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -26062,22 +26064,22 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.313387430622571</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>85.87952829471892</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R46" t="n">
-        <v>177.1416902614165</v>
+        <v>163.8605191622716</v>
       </c>
       <c r="S46" t="n">
-        <v>223.9578008192411</v>
+        <v>218.8102057935515</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9311738349932</v>
+        <v>226.6691135000563</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3188453276404</v>
+        <v>286.3027339191093</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>345815.8121495513</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>488250.2016397293</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>488250.2016397293</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>488250.2016397293</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>488250.2016397293</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>481839.7271751671</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>577166.2125034874</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>577166.2125034874</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>577166.2125034875</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>577166.2125034875</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>565590.184491649</v>
+        <v>279697.759266761</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>322224.4923889863</v>
+        <v>279697.759266761</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716866.7963774087</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="C2" t="n">
-        <v>716866.7963774088</v>
+        <v>716866.7963774086</v>
       </c>
       <c r="D2" t="n">
-        <v>716866.7963774086</v>
+        <v>716866.7963774089</v>
       </c>
       <c r="E2" t="n">
-        <v>213702.4127527449</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="F2" t="n">
-        <v>376451.1374553356</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="G2" t="n">
-        <v>376451.1374553356</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="H2" t="n">
-        <v>376451.1374553358</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="I2" t="n">
-        <v>376451.1374553353</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="J2" t="n">
-        <v>369051.7113276377</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="K2" t="n">
-        <v>485357.7919457214</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="L2" t="n">
-        <v>485357.7919457212</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="M2" t="n">
-        <v>485357.7919457213</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="N2" t="n">
-        <v>485357.7919457214</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="O2" t="n">
-        <v>470705.3355493269</v>
+        <v>200060.9592622613</v>
       </c>
       <c r="P2" t="n">
-        <v>188381.0534795572</v>
+        <v>200060.9592622613</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10551.86760405579</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>62357.72798433379</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6183.775647349423</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>109871.5942673577</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="E4" t="n">
-        <v>150210.573810864</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="F4" t="n">
-        <v>254609.6886930449</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="G4" t="n">
-        <v>254609.6886930449</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="H4" t="n">
-        <v>254609.6886930449</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="I4" t="n">
-        <v>254609.6886930449</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="J4" t="n">
-        <v>249868.8183220168</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="K4" t="n">
-        <v>323915.42720983</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="L4" t="n">
-        <v>323915.4272098301</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="M4" t="n">
-        <v>323915.4272098301</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="N4" t="n">
-        <v>323915.4272098301</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="O4" t="n">
-        <v>314624.5032144918</v>
+        <v>79636.80000449967</v>
       </c>
       <c r="P4" t="n">
-        <v>133843.438909429</v>
+        <v>79636.80000449967</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>991.6843188055901</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="F5" t="n">
-        <v>7544.624111199288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="G5" t="n">
-        <v>7544.624111199288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="H5" t="n">
-        <v>7544.624111199288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="I5" t="n">
-        <v>7544.624111199288</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="J5" t="n">
-        <v>7243.556513578316</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="K5" t="n">
-        <v>12236.61054426274</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="L5" t="n">
-        <v>12236.61054426274</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="M5" t="n">
-        <v>12236.61054426274</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="N5" t="n">
-        <v>12236.61054426274</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="O5" t="n">
-        <v>11586.78075064146</v>
+        <v>3611.612105008322</v>
       </c>
       <c r="P5" t="n">
-        <v>40.78692756334529</v>
+        <v>3611.612105008322</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>215623.2364456774</v>
+        <v>215623.2364456773</v>
       </c>
       <c r="C6" t="n">
-        <v>215623.2364456775</v>
+        <v>215623.2364456773</v>
       </c>
       <c r="D6" t="n">
-        <v>215623.2364456773</v>
+        <v>215623.2364456777</v>
       </c>
       <c r="E6" t="n">
-        <v>51948.28701901945</v>
+        <v>-16287.45284724677</v>
       </c>
       <c r="F6" t="n">
-        <v>51939.09666675763</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="G6" t="n">
-        <v>114296.8246510914</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="H6" t="n">
-        <v>114296.8246510916</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="I6" t="n">
-        <v>114296.8246510911</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="J6" t="n">
-        <v>105755.5608446932</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="K6" t="n">
-        <v>39334.15992427094</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="L6" t="n">
-        <v>149205.7541916284</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="M6" t="n">
-        <v>149205.7541916284</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="N6" t="n">
-        <v>149205.7541916286</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="O6" t="n">
-        <v>144494.0515841937</v>
+        <v>116812.5471527533</v>
       </c>
       <c r="P6" t="n">
-        <v>54496.82764256492</v>
+        <v>116812.5471527533</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="G3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="H3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="I3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="J3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="K3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="L3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="M3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="N3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="O3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="P3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
     </row>
     <row r="4">
@@ -26914,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>77.94715998041724</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.729719559186778</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.870959979969967</v>
+        <v>165.6702800462533</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>77.94715998041724</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.729719559186778</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,31 +28089,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28123,7 +28125,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -28132,31 +28134,31 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.178467538014225</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28166,34 +28168,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.2990685815005</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -28202,7 +28204,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -28214,28 +28216,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,34 +28247,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28284,37 +28286,37 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28326,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28357,10 +28359,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>35.57724712932109</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28369,31 +28371,31 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.178467538014225</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28403,37 +28405,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -28445,34 +28447,34 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,40 +28563,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>31.89141513544961</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28606,31 +28608,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.178467538014225</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28640,37 +28642,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3663804873094315</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -28682,34 +28684,34 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28719,34 +28721,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,40 +28757,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,31 +28800,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28843,31 +28845,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28877,37 +28879,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.94583423682974</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -28919,34 +28921,34 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,34 +29037,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>74.00795238727531</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29074,37 +29076,37 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29114,31 +29116,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,28 +29164,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29193,40 +29195,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29235,34 +29237,34 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>89.25807590950221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,31 +29274,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29308,7 +29310,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -29317,31 +29319,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29351,31 +29353,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29390,37 +29392,37 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>8.179797922993112</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.67687953960402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29509,31 +29511,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,7 +29544,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29554,31 +29556,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.9996794836621</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29588,31 +29590,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.1965776904975</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>99.38382305808713</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>126.4574158277183</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29621,7 +29623,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>141.1143607329347</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -29633,31 +29635,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.4680720175588</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>126.7568893776875</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>128.6212767189941</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>138.3969157027752</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>137.979658357276</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.3199507446637</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29748,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.31091592908498</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,10 +29781,10 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>34.6450480976992</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29793,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29825,40 +29827,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.1965776904975</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>99.38382305808713</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>126.4574158277183</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.1915980915047</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>141.1143607329347</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -29867,34 +29869,34 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>133.2059370784064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.4680720175588</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -29904,34 +29906,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>126.7568893776875</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>128.6212767189941</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29942,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>127.1692515251867</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.3199507446637</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,43 +29985,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>87.6468442202881</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,31 +30030,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30062,31 +30064,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.1965776904975</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>99.38382305808713</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>126.4574158277183</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30110,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30141,34 +30143,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>126.7568893776875</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>128.6212767189941</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30183,34 +30185,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.3199507446637</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,31 +30222,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -30256,40 +30258,40 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30299,34 +30301,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.1965776904975</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>99.38382305808713</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.82776970155429</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.1915980915047</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -30347,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30378,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>126.7568893776875</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>128.6212767189941</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,40 +30416,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>127.1692515251867</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.3199507446637</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,31 +30459,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30490,7 +30492,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30502,31 +30504,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30536,34 +30538,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.1965776904975</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>99.38382305808713</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>126.4574158277183</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.1915980915047</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -30575,37 +30577,37 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>99.9079727424879</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,34 +30617,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.12064805496415</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>128.6212767189941</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30651,40 +30653,40 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>37.16985803484737</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>137.3199507446637</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.3394928341971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007521447155658153</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07702902068288409</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2899705914685112</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6383734255275417</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9567562836265515</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L11" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M11" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N11" t="n">
-        <v>1.342070619601974</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O11" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P11" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8122316765305799</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4724691048916119</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1713949770595603</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03292513492389358</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0006017157724526521</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03886654599899875</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6498408828542857</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L12" t="n">
-        <v>0.873791262343521</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M12" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N12" t="n">
-        <v>1.046660904266406</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9574902455984038</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7684703359238909</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5137020684626974</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07475014636955477</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01622087001502263</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0002647584877315992</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003373862258962235</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02999670262968244</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J13" t="n">
-        <v>0.23853206170863</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3919814515412487</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L13" t="n">
-        <v>0.50160130348244</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M13" t="n">
-        <v>0.528868244829871</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5162929400464668</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4768800945667714</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4080533044839414</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.282514956975465</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0587972177311873</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01441559328829318</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L14" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M14" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N14" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O14" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P14" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R14" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L15" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M15" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N15" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O15" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P15" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S15" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T15" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L16" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N16" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P16" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R16" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S16" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J17" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L17" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M17" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N17" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O17" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P17" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R17" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S17" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L18" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M18" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N18" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O18" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P18" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S18" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T18" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L19" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N19" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S19" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T19" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J20" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L20" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M20" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N20" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O20" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P20" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R20" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T20" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L21" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M21" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N21" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O21" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P21" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S21" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P22" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S22" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L23" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M23" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N23" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O23" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P23" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R23" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T23" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L24" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M24" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N24" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O24" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P24" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R24" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S25" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L26" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M26" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N26" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O26" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P26" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R26" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S26" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T26" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H27" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K27" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L27" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M27" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N27" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O27" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P27" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R27" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S27" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T27" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L28" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M28" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R28" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S28" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I29" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J29" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L29" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M29" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N29" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O29" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P29" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R29" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S29" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H30" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K30" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L30" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M30" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N30" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O30" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P30" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R30" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S30" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T30" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H31" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N31" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R31" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S31" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T31" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L32" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M32" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N32" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O32" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P32" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R32" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S32" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T32" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H33" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K33" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L33" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M33" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N33" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O33" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P33" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R33" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T33" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H34" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K34" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L34" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M34" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N34" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R34" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S34" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L35" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M35" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N35" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O35" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P35" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R35" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T35" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H36" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K36" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M36" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N36" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O36" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P36" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R36" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S36" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T36" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K37" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L37" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M37" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O37" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S37" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L38" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M38" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N38" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O38" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P38" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R38" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T38" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M39" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N39" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O39" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P39" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R39" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S39" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T39" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M40" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N40" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O40" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P40" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S40" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T40" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L41" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M41" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N41" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O41" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P41" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R41" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S41" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T41" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H42" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K42" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L42" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M42" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N42" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O42" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P42" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R42" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S42" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T42" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H43" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I43" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K43" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L43" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M43" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N43" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O43" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R43" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S43" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T43" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.007521447155658154</v>
+        <v>0.6660111760653394</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0770290206828841</v>
+        <v>6.820786956879159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2899705914685113</v>
+        <v>25.67639586525902</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6383734255275419</v>
+        <v>56.52686605457566</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9567562836265517</v>
+        <v>84.71911913742149</v>
       </c>
       <c r="L44" t="n">
-        <v>1.186940772016525</v>
+        <v>105.1015586669311</v>
       </c>
       <c r="M44" t="n">
-        <v>1.320700307870961</v>
+        <v>116.9457349192831</v>
       </c>
       <c r="N44" t="n">
-        <v>1.342070619601975</v>
+        <v>118.8380391732788</v>
       </c>
       <c r="O44" t="n">
-        <v>1.267279229447899</v>
+        <v>112.215390541279</v>
       </c>
       <c r="P44" t="n">
-        <v>1.081593502792588</v>
+        <v>95.77323963216597</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8122316765305801</v>
+        <v>71.92171438932597</v>
       </c>
       <c r="R44" t="n">
-        <v>0.472469104891612</v>
+        <v>41.83632453851442</v>
       </c>
       <c r="S44" t="n">
-        <v>0.1713949770595604</v>
+        <v>15.17672967458894</v>
       </c>
       <c r="T44" t="n">
-        <v>0.03292513492389359</v>
+        <v>2.915463923226025</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0006017157724526523</v>
+        <v>0.05328089408522715</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.004024329013520307</v>
+        <v>0.3563473948164694</v>
       </c>
       <c r="H45" t="n">
-        <v>0.03886654599899877</v>
+        <v>3.441565628885376</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1385569419128702</v>
+        <v>12.26897828644423</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3802108389484252</v>
+        <v>33.66701417430512</v>
       </c>
       <c r="K45" t="n">
-        <v>0.6498408828542858</v>
+        <v>57.54228962700857</v>
       </c>
       <c r="L45" t="n">
-        <v>0.8737912623435212</v>
+        <v>77.37270956311104</v>
       </c>
       <c r="M45" t="n">
-        <v>1.019673189083632</v>
+        <v>90.29030262520804</v>
       </c>
       <c r="N45" t="n">
-        <v>1.046660904266407</v>
+        <v>92.68001826851675</v>
       </c>
       <c r="O45" t="n">
-        <v>0.957490245598404</v>
+        <v>84.7841102044255</v>
       </c>
       <c r="P45" t="n">
-        <v>0.768470335923891</v>
+        <v>68.04672313824318</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.5137020684626975</v>
+        <v>45.48743236288827</v>
       </c>
       <c r="R45" t="n">
-        <v>0.2498614101552346</v>
+        <v>22.12479702202607</v>
       </c>
       <c r="S45" t="n">
-        <v>0.07475014636955478</v>
+        <v>6.61899656599889</v>
       </c>
       <c r="T45" t="n">
-        <v>0.01622087001502264</v>
+        <v>1.436330069457611</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0002647584877315993</v>
+        <v>0.0234439075537151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.003373862258962236</v>
+        <v>0.2987496853293092</v>
       </c>
       <c r="H46" t="n">
-        <v>0.02999670262968245</v>
+        <v>2.656156293200588</v>
       </c>
       <c r="I46" t="n">
-        <v>0.1014612395695189</v>
+        <v>8.984217809721411</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2385320617086301</v>
+        <v>21.12160275278216</v>
       </c>
       <c r="K46" t="n">
-        <v>0.3919814515412488</v>
+        <v>34.70928162280519</v>
       </c>
       <c r="L46" t="n">
-        <v>0.5016013034824401</v>
+        <v>44.41593048977749</v>
       </c>
       <c r="M46" t="n">
-        <v>0.5288682448298712</v>
+        <v>46.83037112848434</v>
       </c>
       <c r="N46" t="n">
-        <v>0.5162929400464669</v>
+        <v>45.71684957407514</v>
       </c>
       <c r="O46" t="n">
-        <v>0.4768800945667715</v>
+        <v>42.22691006818274</v>
       </c>
       <c r="P46" t="n">
-        <v>0.4080533044839416</v>
+        <v>36.1324164874648</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.2825149569754651</v>
+        <v>25.01621228698425</v>
       </c>
       <c r="R46" t="n">
-        <v>0.1517011157529747</v>
+        <v>13.43287221489784</v>
       </c>
       <c r="S46" t="n">
-        <v>0.05879721773118731</v>
+        <v>5.206392243420778</v>
       </c>
       <c r="T46" t="n">
-        <v>0.01441559328829319</v>
+        <v>1.27647592822523</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0001840288504888494</v>
+        <v>0.0162954373815987</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
